--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vegfa-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vegfa-Nrp2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.979788333333333</v>
+        <v>2.162809</v>
       </c>
       <c r="H2">
-        <v>14.939365</v>
+        <v>6.488427000000001</v>
       </c>
       <c r="I2">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="J2">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.632955</v>
+        <v>57.65261933333333</v>
       </c>
       <c r="N2">
-        <v>94.898865</v>
+        <v>172.957858</v>
       </c>
       <c r="O2">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="P2">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="Q2">
-        <v>157.5254202578583</v>
+        <v>124.6916039677073</v>
       </c>
       <c r="R2">
-        <v>1417.728782320725</v>
+        <v>1122.224435709366</v>
       </c>
       <c r="S2">
-        <v>0.06459281961016566</v>
+        <v>0.04604985344944697</v>
       </c>
       <c r="T2">
-        <v>0.06459281961016568</v>
+        <v>0.04604985344944697</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.979788333333333</v>
+        <v>2.162809</v>
       </c>
       <c r="H3">
-        <v>14.939365</v>
+        <v>6.488427000000001</v>
       </c>
       <c r="I3">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="J3">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>25.86682</v>
       </c>
       <c r="O3">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="P3">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="Q3">
-        <v>42.93709615214444</v>
+        <v>18.64833036579333</v>
       </c>
       <c r="R3">
-        <v>386.4338653693</v>
+        <v>167.83497329214</v>
       </c>
       <c r="S3">
-        <v>0.0176062257240761</v>
+        <v>0.006887014466860615</v>
       </c>
       <c r="T3">
-        <v>0.0176062257240761</v>
+        <v>0.006887014466860615</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.979788333333333</v>
+        <v>2.162809</v>
       </c>
       <c r="H4">
-        <v>14.939365</v>
+        <v>6.488427000000001</v>
       </c>
       <c r="I4">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="J4">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.297619333333333</v>
+        <v>2.790736</v>
       </c>
       <c r="N4">
-        <v>12.892858</v>
+        <v>8.372208000000001</v>
       </c>
       <c r="O4">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="P4">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="Q4">
-        <v>21.40123461724111</v>
+        <v>6.035828937424001</v>
       </c>
       <c r="R4">
-        <v>192.61111155517</v>
+        <v>54.32246043681601</v>
       </c>
       <c r="S4">
-        <v>0.008775511182915426</v>
+        <v>0.002229091848768662</v>
       </c>
       <c r="T4">
-        <v>0.008775511182915427</v>
+        <v>0.002229091848768661</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.979788333333333</v>
+        <v>2.162809</v>
       </c>
       <c r="H5">
-        <v>14.939365</v>
+        <v>6.488427000000001</v>
       </c>
       <c r="I5">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="J5">
-        <v>0.129176854764059</v>
+        <v>0.06755089002018773</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.70876033333333</v>
+        <v>15.50544933333333</v>
       </c>
       <c r="N5">
-        <v>56.126281</v>
+        <v>46.516348</v>
       </c>
       <c r="O5">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="P5">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="Q5">
-        <v>93.16566643906279</v>
+        <v>33.53532536717734</v>
       </c>
       <c r="R5">
-        <v>838.490997951565</v>
+        <v>301.817928304596</v>
       </c>
       <c r="S5">
-        <v>0.03820229824690178</v>
+        <v>0.01238493025511148</v>
       </c>
       <c r="T5">
-        <v>0.03820229824690179</v>
+        <v>0.01238493025511148</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>54.058512</v>
       </c>
       <c r="I6">
-        <v>0.467430078412646</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="J6">
-        <v>0.4674300784126461</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.632955</v>
+        <v>57.65261933333333</v>
       </c>
       <c r="N6">
-        <v>94.898865</v>
+        <v>172.957858</v>
       </c>
       <c r="O6">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="P6">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="Q6">
-        <v>570.01015915432</v>
+        <v>1038.871604687477</v>
       </c>
       <c r="R6">
-        <v>5130.09143238888</v>
+        <v>9349.844442187295</v>
       </c>
       <c r="S6">
-        <v>0.2337309326072411</v>
+        <v>0.3836656488999831</v>
       </c>
       <c r="T6">
-        <v>0.2337309326072411</v>
+        <v>0.3836656488999831</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>54.058512</v>
       </c>
       <c r="I7">
-        <v>0.467430078412646</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="J7">
-        <v>0.4674300784126461</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>25.86682</v>
       </c>
       <c r="O7">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="P7">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="Q7">
         <v>155.3690888190933</v>
@@ -883,10 +883,10 @@
         <v>1398.32179937184</v>
       </c>
       <c r="S7">
-        <v>0.06370862246016994</v>
+        <v>0.05737935468811749</v>
       </c>
       <c r="T7">
-        <v>0.06370862246016995</v>
+        <v>0.05737935468811749</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>54.058512</v>
       </c>
       <c r="I8">
-        <v>0.467430078412646</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="J8">
-        <v>0.4674300784126461</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.297619333333333</v>
+        <v>2.790736</v>
       </c>
       <c r="N8">
-        <v>12.892858</v>
+        <v>8.372208000000001</v>
       </c>
       <c r="O8">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="P8">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="Q8">
-        <v>77.44096876747734</v>
+        <v>50.28767851494401</v>
       </c>
       <c r="R8">
-        <v>696.9687189072961</v>
+        <v>452.589106634496</v>
       </c>
       <c r="S8">
-        <v>0.03175443377866247</v>
+        <v>0.01857174141833804</v>
       </c>
       <c r="T8">
-        <v>0.03175443377866247</v>
+        <v>0.01857174141833804</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>54.058512</v>
       </c>
       <c r="I9">
-        <v>0.467430078412646</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="J9">
-        <v>0.4674300784126461</v>
+        <v>0.5628021396814664</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.70876033333333</v>
+        <v>15.50544933333333</v>
       </c>
       <c r="N9">
-        <v>56.126281</v>
+        <v>46.516348</v>
       </c>
       <c r="O9">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="P9">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="Q9">
-        <v>337.1225816615413</v>
+        <v>279.4005062837974</v>
       </c>
       <c r="R9">
-        <v>3034.103234953872</v>
+        <v>2514.604556554176</v>
       </c>
       <c r="S9">
-        <v>0.1382360895665725</v>
+        <v>0.1031853946750279</v>
       </c>
       <c r="T9">
-        <v>0.1382360895665725</v>
+        <v>0.1031853946750279</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.798175000000001</v>
+        <v>4.650307000000001</v>
       </c>
       <c r="H10">
-        <v>20.394525</v>
+        <v>13.950921</v>
       </c>
       <c r="I10">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="J10">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.632955</v>
+        <v>57.65261933333333</v>
       </c>
       <c r="N10">
-        <v>94.898865</v>
+        <v>172.957858</v>
       </c>
       <c r="O10">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="P10">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="Q10">
-        <v>215.046363857125</v>
+        <v>268.1023792541353</v>
       </c>
       <c r="R10">
-        <v>1935.417274714125</v>
+        <v>2412.921413287218</v>
       </c>
       <c r="S10">
-        <v>0.08817910763677131</v>
+        <v>0.09901288363648265</v>
       </c>
       <c r="T10">
-        <v>0.08817910763677132</v>
+        <v>0.09901288363648265</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.798175000000001</v>
+        <v>4.650307000000001</v>
       </c>
       <c r="H11">
-        <v>20.394525</v>
+        <v>13.950921</v>
       </c>
       <c r="I11">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="J11">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>25.86682</v>
       </c>
       <c r="O11">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="P11">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="Q11">
-        <v>58.61572301783333</v>
+        <v>40.09621803791333</v>
       </c>
       <c r="R11">
-        <v>527.5415071605</v>
+        <v>360.86596234122</v>
       </c>
       <c r="S11">
-        <v>0.0240351989984389</v>
+        <v>0.01480793337938911</v>
       </c>
       <c r="T11">
-        <v>0.02403519899843891</v>
+        <v>0.01480793337938911</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.798175000000001</v>
+        <v>4.650307000000001</v>
       </c>
       <c r="H12">
-        <v>20.394525</v>
+        <v>13.950921</v>
       </c>
       <c r="I12">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="J12">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.297619333333333</v>
+        <v>2.790736</v>
       </c>
       <c r="N12">
-        <v>12.892858</v>
+        <v>8.372208000000001</v>
       </c>
       <c r="O12">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="P12">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="Q12">
-        <v>29.21596831138334</v>
+        <v>12.977779155952</v>
       </c>
       <c r="R12">
-        <v>262.94371480245</v>
+        <v>116.800012403568</v>
       </c>
       <c r="S12">
-        <v>0.01197991897297832</v>
+        <v>0.004792823327428288</v>
       </c>
       <c r="T12">
-        <v>0.01197991897297832</v>
+        <v>0.004792823327428287</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.798175000000001</v>
+        <v>4.650307000000001</v>
       </c>
       <c r="H13">
-        <v>20.394525</v>
+        <v>13.950921</v>
       </c>
       <c r="I13">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="J13">
-        <v>0.1763462231431503</v>
+        <v>0.1452427730405732</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.70876033333333</v>
+        <v>15.50544933333333</v>
       </c>
       <c r="N13">
-        <v>56.126281</v>
+        <v>46.516348</v>
       </c>
       <c r="O13">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="P13">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="Q13">
-        <v>127.1854267790583</v>
+        <v>72.10509957294533</v>
       </c>
       <c r="R13">
-        <v>1144.668841011525</v>
+        <v>648.9458961565081</v>
       </c>
       <c r="S13">
-        <v>0.0521519975349618</v>
+        <v>0.02662913269727319</v>
       </c>
       <c r="T13">
-        <v>0.0521519975349618</v>
+        <v>0.02662913269727319</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.752692000000001</v>
+        <v>7.184856000000001</v>
       </c>
       <c r="H14">
-        <v>26.258076</v>
+        <v>21.554568</v>
       </c>
       <c r="I14">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="J14">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.632955</v>
+        <v>57.65261933333333</v>
       </c>
       <c r="N14">
-        <v>94.898865</v>
+        <v>172.957858</v>
       </c>
       <c r="O14">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="P14">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="Q14">
-        <v>276.87351216486</v>
+        <v>414.225767932816</v>
       </c>
       <c r="R14">
-        <v>2491.86160948374</v>
+        <v>3728.031911395344</v>
       </c>
       <c r="S14">
-        <v>0.1135311418107812</v>
+        <v>0.1529777090142402</v>
       </c>
       <c r="T14">
-        <v>0.1135311418107812</v>
+        <v>0.1529777090142402</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.752692000000001</v>
+        <v>7.184856000000001</v>
       </c>
       <c r="H15">
-        <v>26.258076</v>
+        <v>21.554568</v>
       </c>
       <c r="I15">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="J15">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>25.86682</v>
       </c>
       <c r="O15">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="P15">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="Q15">
-        <v>75.46810282648001</v>
+        <v>61.94979229264</v>
       </c>
       <c r="R15">
-        <v>679.21292543832</v>
+        <v>557.54813063376</v>
       </c>
       <c r="S15">
-        <v>0.03094546609818727</v>
+        <v>0.02287867639459161</v>
       </c>
       <c r="T15">
-        <v>0.03094546609818727</v>
+        <v>0.02287867639459161</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.752692000000001</v>
+        <v>7.184856000000001</v>
       </c>
       <c r="H16">
-        <v>26.258076</v>
+        <v>21.554568</v>
       </c>
       <c r="I16">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="J16">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.297619333333333</v>
+        <v>2.790736</v>
       </c>
       <c r="N16">
-        <v>12.892858</v>
+        <v>8.372208000000001</v>
       </c>
       <c r="O16">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="P16">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="Q16">
-        <v>37.61573835791201</v>
+        <v>20.051036294016</v>
       </c>
       <c r="R16">
-        <v>338.5416452212081</v>
+        <v>180.459326646144</v>
       </c>
       <c r="S16">
-        <v>0.01542421914049514</v>
+        <v>0.007405047761580709</v>
       </c>
       <c r="T16">
-        <v>0.01542421914049514</v>
+        <v>0.007405047761580707</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.752692000000001</v>
+        <v>7.184856000000001</v>
       </c>
       <c r="H17">
-        <v>26.258076</v>
+        <v>21.554568</v>
       </c>
       <c r="I17">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="J17">
-        <v>0.2270468436801446</v>
+        <v>0.2244041972577726</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.70876033333333</v>
+        <v>15.50544933333333</v>
       </c>
       <c r="N17">
-        <v>56.126281</v>
+        <v>46.516348</v>
       </c>
       <c r="O17">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="P17">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="Q17">
-        <v>163.752016899484</v>
+        <v>111.404420675296</v>
       </c>
       <c r="R17">
-        <v>1473.768152095356</v>
+        <v>1002.639786077664</v>
       </c>
       <c r="S17">
-        <v>0.06714601663068101</v>
+        <v>0.04114276408736013</v>
       </c>
       <c r="T17">
-        <v>0.06714601663068101</v>
+        <v>0.04114276408736013</v>
       </c>
     </row>
   </sheetData>
